--- a/2018/Assignment/NTU-MFE-Assignment-2018.xlsx
+++ b/2018/Assignment/NTU-MFE-Assignment-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Docs\MFE\FE8828\2018\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6027D85-F792-4206-B631-F0D38BE12136}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1737E0-1384-426D-A829-C0CD7E1B5C17}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" xr2:uid="{B107007A-6FFD-4355-AF6D-920372D6D63A}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
-  <si>
-    <t>Yes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t xml:space="preserve">CoB (NBS) </t>
   </si>
@@ -44,9 +41,6 @@
     <t xml:space="preserve">QCAI001@ntu.edu.sg </t>
   </si>
   <si>
-    <t xml:space="preserve">Student </t>
-  </si>
-  <si>
     <t xml:space="preserve">DONG JIAQI </t>
   </si>
   <si>
@@ -83,12 +77,6 @@
     <t xml:space="preserve">MANAV003@ntu.edu.sg </t>
   </si>
   <si>
-    <t xml:space="preserve">QIU MINGYU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QIUM0003@ntu.edu.sg </t>
-  </si>
-  <si>
     <t xml:space="preserve">SINGH GAURAV </t>
   </si>
   <si>
@@ -101,12 +89,6 @@
     <t xml:space="preserve">SONG0164@ntu.edu.sg </t>
   </si>
   <si>
-    <t xml:space="preserve">TAN BOON KEONG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C170022@ntu.edu.sg </t>
-  </si>
-  <si>
     <t xml:space="preserve">TAO YE </t>
   </si>
   <si>
@@ -123,6 +105,66 @@
   </si>
   <si>
     <t xml:space="preserve">ZHAN0462@ntu.edu.sg </t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>NG LAY YONG</t>
+  </si>
+  <si>
+    <t>NGLA0003@ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>ABHISHEK VIJAYKUMAR</t>
+  </si>
+  <si>
+    <t>ABHISHEK029@ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Some coding and shared with abhishek</t>
+  </si>
+  <si>
+    <t>Some coding and shared with gaurav</t>
+  </si>
+  <si>
+    <t>Content is good</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>plain with some interesting picture</t>
+  </si>
+  <si>
+    <t>plain with some catchy words</t>
+  </si>
+  <si>
+    <t>Good interative code</t>
+  </si>
+  <si>
+    <t>1/ missing logic for zero case. 2/ missing logic for last element.</t>
+  </si>
+  <si>
+    <t>almost perfect. -0.5 for not tidyness</t>
   </si>
 </sst>
 </file>
@@ -158,8 +200,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,257 +521,380 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB49BAAC-309F-4D2A-8244-3ACA2351A207}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:G14"/>
+  <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>8.5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>9.5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8.5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s">
-        <v>0</v>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/2018/Assignment/NTU-MFE-Assignment-2018.xlsx
+++ b/2018/Assignment/NTU-MFE-Assignment-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Docs\MFE\FE8828\2018\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1737E0-1384-426D-A829-C0CD7E1B5C17}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333718D3-A2B8-4E35-877D-A30E88EAEFFC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" xr2:uid="{B107007A-6FFD-4355-AF6D-920372D6D63A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11868" xr2:uid="{B107007A-6FFD-4355-AF6D-920372D6D63A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t xml:space="preserve">CoB (NBS) </t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>almost perfect. -0.5 for not tidyness</t>
+  </si>
+  <si>
+    <t>LOA</t>
   </si>
 </sst>
 </file>
@@ -200,12 +203,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,27 +530,28 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F1" t="s">
         <v>32</v>
       </c>
       <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="K1" t="s">
@@ -560,7 +567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -582,8 +589,11 @@
       <c r="H2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -605,8 +615,11 @@
       <c r="H3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -628,7 +641,7 @@
       <c r="H4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="b">
+      <c r="J4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="K4">
@@ -638,7 +651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -660,6 +673,9 @@
       <c r="H5" t="s">
         <v>39</v>
       </c>
+      <c r="J5" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K5">
         <v>9.5</v>
       </c>
@@ -667,7 +683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -689,8 +705,11 @@
       <c r="H6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -712,8 +731,11 @@
       <c r="H7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -735,8 +757,11 @@
       <c r="H8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -758,8 +783,11 @@
       <c r="H9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -781,8 +809,11 @@
       <c r="H10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -804,8 +835,11 @@
       <c r="H11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J11" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -827,8 +861,11 @@
       <c r="H12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J12" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -850,8 +887,11 @@
       <c r="H13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -873,8 +913,11 @@
       <c r="H14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -896,8 +939,12 @@
       <c r="H15" t="s">
         <v>38</v>
       </c>
+      <c r="J15" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2018/Assignment/NTU-MFE-Assignment-2018.xlsx
+++ b/2018/Assignment/NTU-MFE-Assignment-2018.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Docs\MFE\FE8828\2018\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333718D3-A2B8-4E35-877D-A30E88EAEFFC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E634D8-7012-4B07-8CD0-6CF9AD8420BA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11868" xr2:uid="{B107007A-6FFD-4355-AF6D-920372D6D63A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11864" xr2:uid="{B107007A-6FFD-4355-AF6D-920372D6D63A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Individual" sheetId="1" r:id="rId1"/>
+    <sheet name="Group" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
   <si>
     <t xml:space="preserve">CoB (NBS) </t>
   </si>
@@ -168,6 +169,78 @@
   </si>
   <si>
     <t>LOA</t>
+  </si>
+  <si>
+    <t>Ng Lay Yong</t>
+  </si>
+  <si>
+    <t>Wu Siying</t>
+  </si>
+  <si>
+    <t>Dong Jiaqi</t>
+  </si>
+  <si>
+    <t>Tao Ye</t>
+  </si>
+  <si>
+    <t>Fang You</t>
+  </si>
+  <si>
+    <t>Group A</t>
+  </si>
+  <si>
+    <t>abhishekvijaykumar94@gmail.com</t>
+  </si>
+  <si>
+    <t>wusiying1995@gmail.com</t>
+  </si>
+  <si>
+    <t>cqpulsate@gmail.com</t>
+  </si>
+  <si>
+    <t>fang.you@gmail.com</t>
+  </si>
+  <si>
+    <t>jiaqidong723@gmail.com</t>
+  </si>
+  <si>
+    <t>gauravsingh0109@gmail.com</t>
+  </si>
+  <si>
+    <t>liangxuesen16@gmail.com</t>
+  </si>
+  <si>
+    <t>fireborne88@gmail.com</t>
+  </si>
+  <si>
+    <t>mnv.mhr@gmail.com</t>
+  </si>
+  <si>
+    <t>zxfu001@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>sjn1996@hotmail.com</t>
+  </si>
+  <si>
+    <t>ye8tao@gmail.com</t>
+  </si>
+  <si>
+    <t>zhan0355@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>1/ missing zero-split_num case. 2/ lack of writing in Rmd.</t>
+  </si>
+  <si>
+    <t>1/ missing zero-split_num case. 2/ No Rmd.</t>
+  </si>
+  <si>
+    <t>1/ not in function</t>
+  </si>
+  <si>
+    <t>1/ missing logic for zero case. Well-documented</t>
+  </si>
+  <si>
+    <t>1/ missing logic for zero case. 2/ missing logic for last element.3/ good doc</t>
   </si>
 </sst>
 </file>
@@ -203,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -211,6 +284,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,24 +603,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB49BAAC-309F-4D2A-8244-3ACA2351A207}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:O15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="30.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.69921875" customWidth="1"/>
+    <col min="4" max="4" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="10" max="10" width="8.8984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F1" t="s">
         <v>32</v>
       </c>
@@ -567,7 +644,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -592,8 +672,17 @@
       <c r="J2" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>6.5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -618,8 +707,17 @@
       <c r="J3" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -645,13 +743,16 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -683,7 +784,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -708,8 +812,17 @@
       <c r="J6" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>7.5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -734,8 +847,14 @@
       <c r="J7" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -761,7 +880,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -786,8 +908,17 @@
       <c r="J9" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>7.5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -812,8 +943,17 @@
       <c r="J10" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -838,8 +978,17 @@
       <c r="J11" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -864,8 +1013,17 @@
       <c r="J12" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>6.5</v>
+      </c>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -890,8 +1048,17 @@
       <c r="J13" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>6.5</v>
+      </c>
+      <c r="L13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -916,8 +1083,14 @@
       <c r="J14" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -941,10 +1114,64 @@
       </c>
       <c r="J15" s="3" t="b">
         <v>1</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216015D-06DB-4398-AC65-DA382541DB02}">
+  <dimension ref="B1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>